--- a/excel_with_subclasses/without_zeros/tunnel_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/tunnel_with_count_without_zeros.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -431,9 +431,6 @@
           <t>Q12719343_водный туннель</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>13593</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,9 +448,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>253</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,9 +465,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,9 +482,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,9 +499,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,9 +516,6 @@
           <t>Q58917_Штольня</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,9 +533,6 @@
           <t>Q44377_тоннель,Q11129889_underwater tunnel</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -571,9 +550,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,9 +567,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -611,9 +584,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -631,9 +601,6 @@
           <t>Q1425971_дюкер</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -651,9 +618,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -671,9 +635,6 @@
           <t>Q1425971_дюкер</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -691,9 +652,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -711,9 +669,6 @@
           <t>Q1317590_Подводные тоннели</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -731,9 +686,6 @@
           <t>Q459297_кяриз</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -751,9 +703,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -771,9 +720,6 @@
           <t>Q1425971_дюкер</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -791,9 +737,6 @@
           <t>Q44377_тоннель,Q1187918_secret passage</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -811,9 +754,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -831,9 +771,6 @@
           <t>Q1260995_penstock</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -851,9 +788,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -871,9 +805,6 @@
           <t>Q64521892_supply tunnel</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -891,9 +822,6 @@
           <t>Q44377_тоннель</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -911,9 +839,6 @@
           <t>Q64521892_supply tunnel</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -931,9 +856,6 @@
           <t>Q44377_тоннель,Q26263224_international tunnel</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -950,9 +872,6 @@
         <is>
           <t>Q44377_тоннель</t>
         </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +911,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1012,9 +931,6 @@
           <t>Q2354973_автомобильный тоннель</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1031,9 +947,6 @@
         <is>
           <t>Q2354973_автомобильный тоннель</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1093,9 +1006,7 @@
           <t>Q1311958_железнодорожный тоннель</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>24</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1113,9 +1024,7 @@
           <t>Q1311958_железнодорожный тоннель</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1133,9 +1042,7 @@
           <t>Q1311958_железнодорожный тоннель</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
